--- a/Bachelor Proef DeBeuckelaerDavid/Planning/Planning.xlsx
+++ b/Bachelor Proef DeBeuckelaerDavid/Planning/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>Overzicht planning semester</t>
   </si>
@@ -192,28 +192,52 @@
     <t xml:space="preserve">Uitgebreide planning per week (Week7) </t>
   </si>
   <si>
-    <t>Als programmeren in powerpoint geen optie is, zoeken voor alternatief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternatief/ PowerPoint mogelijkheden analyseren </t>
-  </si>
-  <si>
-    <t>Programmeren in powerpoint  opzoeken / mogelijkheden bekijken</t>
-  </si>
-  <si>
-    <t>Alternatief/PowerPoint mogelijkheden + Afspraak met Stephen Hargreaves</t>
-  </si>
-  <si>
-    <t>Eventueel onderzoek starten met Stephen Hargreaves (gebruik in InterSmart in leeromgeving)</t>
-  </si>
-  <si>
-    <t>Documenteren  applicatie tot hier toe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitgebreide planning per week (Week8) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uitgebreide planning per week (Week9) </t>
+    <t>Onderzoeken : Calling XML Web Services from office VBA  (om uiteindelijk in powerpoint te gebruiken)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenCampusDag : Feature: Rating Presentator maken </t>
+  </si>
+  <si>
+    <t>Calling a .NET Library from excel (ook in powerpoint te gebruiken)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uitgebreide planning per week (Week10) </t>
+  </si>
+  <si>
+    <t>Code organiseren + onnodige code verwijderen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tot nu toe bereikte features die echt gebruikt zullen in deze versie verwerken. </t>
+  </si>
+  <si>
+    <t>Starten met een goede GUI/ Logo verwerken</t>
+  </si>
+  <si>
+    <t>Aanmaken totaal systeem overzicht om zo een uidelijke user interface aan te maken (InterSmart eind versie)</t>
+  </si>
+  <si>
+    <t>Tweets opslaan in XML fille op deze later op te slaan in XML database + basis database diagram aanmaken</t>
+  </si>
+  <si>
+    <t>Database tab aanmaken (window waarbij je de database kan managen) + kleine demo maken</t>
+  </si>
+  <si>
+    <t>Eventueel onderzoek starten met Stephen Hargreaves (gebruik in InterSmart in leeromgeving)  + database afwerken</t>
+  </si>
+  <si>
+    <t>Uitgebreide planning per week (Week9)  (Paasvakantie)</t>
+  </si>
+  <si>
+    <t>Uitgebreide planning per week (Week8)  (Paasvakantie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elke feature uitwerken hoe deze juist zal worden opgebouwt </t>
+  </si>
+  <si>
+    <t>Werking bekijken van SQL-Lite</t>
+  </si>
+  <si>
+    <t>SQL-Lite database uitwerken</t>
   </si>
 </sst>
 </file>
@@ -568,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +940,7 @@
         <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -924,7 +948,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +961,7 @@
         <v>26</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -945,7 +969,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -953,7 +977,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -961,7 +985,7 @@
         <v>29</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -969,37 +993,45 @@
         <v>30</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1007,40 +1039,83 @@
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="2"/>
+      <c r="B78" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
